--- a/data/trans_orig/P16A20-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A20-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1011</v>
+        <v>1079</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10093</v>
+        <v>11570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005821823817238885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00145919081872322</v>
+        <v>0.001556549391322835</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01456363025687816</v>
+        <v>0.01669577214884473</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -765,19 +765,19 @@
         <v>3967</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9064</v>
+        <v>9573</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005763585054091394</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001502717927453373</v>
+        <v>0.001516521100452092</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01316736905188314</v>
+        <v>0.01390784211978737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -786,19 +786,19 @@
         <v>8002</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3882</v>
+        <v>3894</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15792</v>
+        <v>14279</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005792802310689413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002810652195169944</v>
+        <v>0.002818889506630673</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01143217043928674</v>
+        <v>0.01033704596084781</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>688960</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>682901</v>
+        <v>681424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>691983</v>
+        <v>691915</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9941781761827612</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9854363697431219</v>
+        <v>0.9833042278511557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9985408091812767</v>
+        <v>0.9984434506086772</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>692</v>
@@ -836,19 +836,19 @@
         <v>684384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>679287</v>
+        <v>678778</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>687317</v>
+        <v>687307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9942364149459086</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.986832630948117</v>
+        <v>0.9860921578802135</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9984972820725466</v>
+        <v>0.9984834788995479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1370</v>
@@ -857,19 +857,19 @@
         <v>1373343</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1365553</v>
+        <v>1367066</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1377463</v>
+        <v>1377451</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9942071976893105</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9885678295607133</v>
+        <v>0.9896629540391522</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9971893478048302</v>
+        <v>0.9971811104933693</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8044</v>
+        <v>6469</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002141548691989873</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008363716208697653</v>
+        <v>0.006725665195209335</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -982,19 +982,19 @@
         <v>5211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1997</v>
+        <v>1950</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11487</v>
+        <v>11074</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005381102630495188</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002062411426292823</v>
+        <v>0.002013898184202713</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01186218575841455</v>
+        <v>0.01143532480593479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1003,19 +1003,19 @@
         <v>7271</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3198</v>
+        <v>2933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14395</v>
+        <v>14629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003766858411000084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.001656735962249319</v>
+        <v>0.001519751477056488</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007457589983299033</v>
+        <v>0.00757888720583721</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>959740</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>953756</v>
+        <v>955331</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>961800</v>
@@ -1041,7 +1041,7 @@
         <v>0.9978584513080101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9916362837913024</v>
+        <v>0.9932743348047923</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>963182</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>956906</v>
+        <v>957319</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>966396</v>
+        <v>966443</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9946188973695048</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9881378142415853</v>
+        <v>0.9885646751940651</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9979375885737072</v>
+        <v>0.9979861018157973</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1797</v>
@@ -1074,19 +1074,19 @@
         <v>1922922</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1915798</v>
+        <v>1915564</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1926995</v>
+        <v>1927260</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9962331415889999</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9925424100167005</v>
+        <v>0.9924211127941627</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9983432640377506</v>
+        <v>0.9984802485229434</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4119</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10302</v>
+        <v>9482</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006070325098517194</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001578361999306104</v>
+        <v>0.001541544944100009</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01518390840979489</v>
+        <v>0.01397500524560388</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1199,19 +1199,19 @@
         <v>4586</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1737</v>
+        <v>1782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10674</v>
+        <v>10937</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006705549909011234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002540596043468033</v>
+        <v>0.002605536228280231</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01560833370968197</v>
+        <v>0.01599405693680658</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1220,19 +1220,19 @@
         <v>8704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3808</v>
+        <v>4203</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15468</v>
+        <v>16443</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006389180611553297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002795265513671525</v>
+        <v>0.003085251639068938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01135367166397121</v>
+        <v>0.01206972401743726</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>674390</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668207</v>
+        <v>669027</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>677438</v>
+        <v>677463</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9939296749014828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.984816091590205</v>
+        <v>0.986024994754396</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984216380006938</v>
+        <v>0.9984584550559</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>691</v>
@@ -1270,19 +1270,19 @@
         <v>679255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>673167</v>
+        <v>672904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>682104</v>
+        <v>682059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9932944500909887</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9843916662903183</v>
+        <v>0.9840059430631927</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9974594039565319</v>
+        <v>0.9973944637717198</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1328</v>
@@ -1291,19 +1291,19 @@
         <v>1353646</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1346882</v>
+        <v>1345907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1358542</v>
+        <v>1358147</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9936108193884468</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9886463283360287</v>
+        <v>0.9879302759825629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972047344863284</v>
+        <v>0.9969147483609315</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>4249</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9518</v>
+        <v>9289</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004509770849499431</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001715848180610399</v>
+        <v>0.001726329457359984</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01010196719007409</v>
+        <v>0.009858555606348202</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1416,19 +1416,19 @@
         <v>4999</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1944</v>
+        <v>1923</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12157</v>
+        <v>11942</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004812953693866827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001871896342197244</v>
+        <v>0.001851522820377563</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01170477251676047</v>
+        <v>0.01149833344561541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1437,19 +1437,19 @@
         <v>9248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4590</v>
+        <v>4635</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16852</v>
+        <v>16304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004668738903083117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002317260528075276</v>
+        <v>0.00234002163761626</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.00850760919546757</v>
+        <v>0.008230689678326658</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>937973</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>932704</v>
+        <v>932933</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>940605</v>
+        <v>940595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9954902291505006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9898980328099259</v>
+        <v>0.9901414443936517</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982841518193897</v>
+        <v>0.99827367054264</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>992</v>
@@ -1487,19 +1487,19 @@
         <v>1033613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1026455</v>
+        <v>1026670</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1036668</v>
+        <v>1036689</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9951870463061332</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9882952274832395</v>
+        <v>0.9885016665543845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9981281036578028</v>
+        <v>0.9981484771796224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1981</v>
@@ -1508,19 +1508,19 @@
         <v>1971586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1963982</v>
+        <v>1964530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1976244</v>
+        <v>1976199</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9953312610969168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9914923908045326</v>
+        <v>0.9917693103216735</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9976827394719248</v>
+        <v>0.9976599783623837</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>14462</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23909</v>
+        <v>23331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004415232919933159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>18763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.005552417681264333</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -1654,19 +1654,19 @@
         <v>33225</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004992683250538844</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3261063</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3251616</v>
+        <v>3252194</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3266890</v>
+        <v>3266961</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9955847670800668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9927007941696251</v>
+        <v>0.9928771391029909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9973637475713243</v>
+        <v>0.9973855644062343</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3278</v>
@@ -1704,19 +1704,19 @@
         <v>3360434</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3350576</v>
+        <v>3350929</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3367737</v>
+        <v>3368037</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9944475823187356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9915303390602378</v>
+        <v>0.9916346584436181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9966087196383171</v>
+        <v>0.9966974955547591</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6476</v>
@@ -1725,19 +1725,19 @@
         <v>6621497</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6609264</v>
+        <v>6608808</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6631827</v>
+        <v>6631396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9950073167494612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.993169126558254</v>
+        <v>0.9931005751612162</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9965595770473126</v>
+        <v>0.9964947526995118</v>
       </c>
     </row>
     <row r="18">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7340</v>
+        <v>6338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002996254985414677</v>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01047381410501188</v>
+        <v>0.009044803365341527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -2090,19 +2090,19 @@
         <v>19771</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11548</v>
+        <v>12107</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32243</v>
+        <v>30237</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0285571705177279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01667993758825786</v>
+        <v>0.01748659760389601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04657195433935667</v>
+        <v>0.04367312784493689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2111,19 +2111,19 @@
         <v>21871</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>13572</v>
+        <v>13668</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32990</v>
+        <v>34658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0156994036349661</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009742398991475514</v>
+        <v>0.009811345805856107</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02368122166686662</v>
+        <v>0.02487815811726331</v>
       </c>
     </row>
     <row r="5">
@@ -2140,7 +2140,7 @@
         <v>698664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>693424</v>
+        <v>694426</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>700764</v>
@@ -2149,7 +2149,7 @@
         <v>0.9970037450145853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9895261858949881</v>
+        <v>0.9909551966346585</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2161,19 +2161,19 @@
         <v>672566</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>660094</v>
+        <v>662100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>680789</v>
+        <v>680230</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9714428294822721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9534280456606429</v>
+        <v>0.9563268721550627</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9833200624117422</v>
+        <v>0.9825134023961039</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1298</v>
@@ -2182,19 +2182,19 @@
         <v>1371229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1360110</v>
+        <v>1358442</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1379528</v>
+        <v>1379432</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9843005963650339</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9763187783331335</v>
+        <v>0.9751218418827364</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9902576010085244</v>
+        <v>0.9901886541941437</v>
       </c>
     </row>
     <row r="6">
@@ -2299,19 +2299,19 @@
         <v>42791</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31226</v>
+        <v>30503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>57771</v>
+        <v>58611</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04158799638765095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03034865396988159</v>
+        <v>0.02964561322930099</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05614742048249201</v>
+        <v>0.05696373581729504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2320,19 +2320,19 @@
         <v>42791</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31370</v>
+        <v>31262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57062</v>
+        <v>58312</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02090552310481666</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01532565760926152</v>
+        <v>0.01527311620356435</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02787790282364629</v>
+        <v>0.02848858323534062</v>
       </c>
     </row>
     <row r="8">
@@ -2362,19 +2362,19 @@
         <v>986134</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>971154</v>
+        <v>970314</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997699</v>
+        <v>998422</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.958412003612349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.943852579517508</v>
+        <v>0.9430362641827049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9696513460301184</v>
+        <v>0.9703543867706991</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1834</v>
@@ -2383,19 +2383,19 @@
         <v>2004081</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1989810</v>
+        <v>1988560</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2015502</v>
+        <v>2015610</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790944768951834</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.972122097176354</v>
+        <v>0.9715114167646594</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9846743423907387</v>
+        <v>0.9847268837964355</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>2950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8065</v>
+        <v>7990</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.00389904623015504</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001236105036380344</v>
+        <v>0.00123825111971636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01066018817692567</v>
+        <v>0.01056135343546856</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2508,19 +2508,19 @@
         <v>27509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17825</v>
+        <v>18352</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40449</v>
+        <v>40630</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03543701089862727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02296250040956409</v>
+        <v>0.02364144317837478</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05210603145859416</v>
+        <v>0.05233885476831563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -2529,19 +2529,19 @@
         <v>30459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20003</v>
+        <v>20670</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42672</v>
+        <v>43575</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01987116224811482</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01304988664688684</v>
+        <v>0.01348486270676117</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02783886446798988</v>
+        <v>0.02842806752189035</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>753588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>748473</v>
+        <v>748548</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>755603</v>
+        <v>755601</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.996100953769845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9893398118230744</v>
+        <v>0.9894386465645316</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9987638949636196</v>
+        <v>0.9987617488802836</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>679</v>
@@ -2579,19 +2579,19 @@
         <v>748774</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>735834</v>
+        <v>735653</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>758458</v>
+        <v>757931</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9645629891013727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9478939685414061</v>
+        <v>0.9476611452316841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9770374995904362</v>
+        <v>0.976358556821625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1364</v>
@@ -2600,19 +2600,19 @@
         <v>1502362</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1490149</v>
+        <v>1489246</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1512818</v>
+        <v>1512151</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9801288377518852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.97216113553201</v>
+        <v>0.9715719324781098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9869501133531131</v>
+        <v>0.9865151372932389</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>3858</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>966</v>
+        <v>975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8756</v>
+        <v>9711</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00407847583009662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001021383934405646</v>
+        <v>0.001030985606661368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009256334530484384</v>
+        <v>0.0102663918289442</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -2725,19 +2725,19 @@
         <v>32078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22685</v>
+        <v>22159</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44850</v>
+        <v>45335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03055826764769165</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02161002808639654</v>
+        <v>0.02110855970186719</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04272436402496879</v>
+        <v>0.04318653640166712</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -2746,19 +2746,19 @@
         <v>35936</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25951</v>
+        <v>26001</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48316</v>
+        <v>50825</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01800711567776719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01300373934937975</v>
+        <v>0.01302881977077514</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02421047050009963</v>
+        <v>0.02546730994069321</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>942072</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>937174</v>
+        <v>936219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>944964</v>
+        <v>944955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9959215241699034</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9907436654695155</v>
+        <v>0.989733608171056</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9989786160655943</v>
+        <v>0.9989690143933386</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>970</v>
@@ -2796,19 +2796,19 @@
         <v>1017668</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1004896</v>
+        <v>1004411</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1027061</v>
+        <v>1027587</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9694417323523083</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9572756359750312</v>
+        <v>0.9568134635983333</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9783899719136037</v>
+        <v>0.9788914402981328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1874</v>
@@ -2817,19 +2817,19 @@
         <v>1959741</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1947361</v>
+        <v>1944852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1969726</v>
+        <v>1969676</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9819928843222329</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9757895294999004</v>
+        <v>0.9745326900593068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9869962606506203</v>
+        <v>0.9869711802292249</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>8907</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16299</v>
+        <v>15865</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002603604437807695</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>112</v>
@@ -2942,19 +2942,19 @@
         <v>122150</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03443463912454823</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -2963,19 +2963,19 @@
         <v>131057</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01880715428479564</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>3412272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3404880</v>
+        <v>3405314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3417131</v>
+        <v>3417249</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9973963955621923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9952357601005636</v>
+        <v>0.995362833989559</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9988166425416041</v>
+        <v>0.9988511634770234</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3176</v>
@@ -3013,19 +3013,19 @@
         <v>3425142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3398685</v>
+        <v>3402380</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3446626</v>
+        <v>3447689</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9655653608754518</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9581069359138173</v>
+        <v>0.9591485978959207</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9716218092015533</v>
+        <v>0.97192130882467</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6370</v>
@@ -3034,19 +3034,19 @@
         <v>6837414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6811616</v>
+        <v>6810236</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6859336</v>
+        <v>6858616</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9811928457152044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9774908280783616</v>
+        <v>0.9772927248875135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9843387173452426</v>
+        <v>0.9842353797155362</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>4108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1022</v>
+        <v>1057</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9369</v>
+        <v>10035</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006087511247874551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001514899989222015</v>
+        <v>0.001566349167503049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01388346152721098</v>
+        <v>0.01487067370381684</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -3399,19 +3399,19 @@
         <v>30525</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21719</v>
+        <v>20762</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42699</v>
+        <v>43166</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04536744157611867</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03228013828040768</v>
+        <v>0.03085773826169666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06346139615428679</v>
+        <v>0.06415478207411782</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -3420,19 +3420,19 @@
         <v>34633</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24007</v>
+        <v>25034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48318</v>
+        <v>49192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02569889753441309</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01781414501944325</v>
+        <v>0.01857648759610657</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03585413946008522</v>
+        <v>0.0365025340485757</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>670692</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665431</v>
+        <v>664765</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673778</v>
+        <v>673743</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9939124887521255</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9861165384727891</v>
+        <v>0.9851293262961837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9984851000107779</v>
+        <v>0.9984336508324969</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>637</v>
@@ -3470,19 +3470,19 @@
         <v>642314</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>630140</v>
+        <v>629673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>651120</v>
+        <v>652077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9546325584238813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9365386038457132</v>
+        <v>0.9358452179258822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9677198617195922</v>
+        <v>0.9691422617383033</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1285</v>
@@ -3491,19 +3491,19 @@
         <v>1313006</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1299321</v>
+        <v>1298447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1323632</v>
+        <v>1322605</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9743011024655869</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9641458605399146</v>
+        <v>0.9634974659514239</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9821858549805567</v>
+        <v>0.9814235124038931</v>
       </c>
     </row>
     <row r="6">
@@ -3595,19 +3595,19 @@
         <v>4406</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10867</v>
+        <v>11023</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004309536062588775</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001114964693199499</v>
+        <v>0.001117526286546223</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01062844166880676</v>
+        <v>0.01078101287714117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -3616,19 +3616,19 @@
         <v>48343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35636</v>
+        <v>37059</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62827</v>
+        <v>67321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04635341064642932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03416974306824046</v>
+        <v>0.03553458914465197</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06024218064726568</v>
+        <v>0.06455119647037923</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -3637,19 +3637,19 @@
         <v>52749</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>40060</v>
+        <v>40229</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69661</v>
+        <v>68691</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02553994784343908</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01939644488386331</v>
+        <v>0.01947801015898851</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03372837348125519</v>
+        <v>0.0332590466207171</v>
       </c>
     </row>
     <row r="8">
@@ -3666,19 +3666,19 @@
         <v>1018025</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1011564</v>
+        <v>1011408</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021291</v>
+        <v>1021288</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9956904639374112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9893715583311928</v>
+        <v>0.9892189871228582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9988850353068005</v>
+        <v>0.9988824737134538</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>931</v>
@@ -3687,19 +3687,19 @@
         <v>994570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980086</v>
+        <v>975592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1007277</v>
+        <v>1005854</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9536465893535707</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9397578193527341</v>
+        <v>0.9354488035296207</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9658302569317595</v>
+        <v>0.9644654108553479</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1878</v>
@@ -3708,19 +3708,19 @@
         <v>2012595</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1995683</v>
+        <v>1996653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2025284</v>
+        <v>2025115</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.974460052156561</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9662716265187452</v>
+        <v>0.966740953379283</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9806035551161367</v>
+        <v>0.9805219898410115</v>
       </c>
     </row>
     <row r="9">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6260</v>
+        <v>7278</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.002726389211038449</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008241338143006082</v>
+        <v>0.009581618032056965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -3833,19 +3833,19 @@
         <v>23820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15480</v>
+        <v>14765</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35251</v>
+        <v>34157</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03034374076813685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01972006137912777</v>
+        <v>0.01880843028709071</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04490564689080228</v>
+        <v>0.04351144401033369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -3854,19 +3854,19 @@
         <v>25891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17371</v>
+        <v>17607</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>38533</v>
+        <v>37628</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01676266979415163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01124669546094839</v>
+        <v>0.01139941136782818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02494759510550561</v>
+        <v>0.02436173036983716</v>
       </c>
     </row>
     <row r="11">
@@ -3883,7 +3883,7 @@
         <v>757481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>753292</v>
+        <v>752274</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>759552</v>
@@ -3892,7 +3892,7 @@
         <v>0.9972736107889616</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9917586618569939</v>
+        <v>0.990418381967943</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3904,19 +3904,19 @@
         <v>761191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749760</v>
+        <v>750854</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>769531</v>
+        <v>770246</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9696562592318632</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9550943531091978</v>
+        <v>0.9564885559896662</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9802799386208723</v>
+        <v>0.9811915697129093</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1408</v>
@@ -3925,19 +3925,19 @@
         <v>1518672</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1506030</v>
+        <v>1506935</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1527192</v>
+        <v>1526956</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9832373302058484</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9750524048944947</v>
+        <v>0.9756382696301629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9887533045390516</v>
+        <v>0.9886005886321718</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>3686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9124</v>
+        <v>9169</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00393196265520525</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0009824225348461077</v>
+        <v>0.0009867687908426939</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009732097928499389</v>
+        <v>0.00977910471511719</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4050,19 +4050,19 @@
         <v>52954</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39183</v>
+        <v>39332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>70834</v>
+        <v>69906</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05073267364643806</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03753953313662826</v>
+        <v>0.03768192147408406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06786306219794241</v>
+        <v>0.06697395891122927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4071,19 +4071,19 @@
         <v>56640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42822</v>
+        <v>41019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73682</v>
+        <v>73894</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02858671736230781</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02161258647914669</v>
+        <v>0.02070283863671472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03718781017195757</v>
+        <v>0.03729498562774894</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>933881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>928443</v>
+        <v>928398</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>936646</v>
+        <v>936642</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9960680373447948</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9902679020714985</v>
+        <v>0.9902208952848824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9990175774651538</v>
+        <v>0.9990132312091573</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>913</v>
@@ -4121,19 +4121,19 @@
         <v>990825</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>972945</v>
+        <v>973873</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1004596</v>
+        <v>1004447</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9492673263535619</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9321369378020576</v>
+        <v>0.9330260410887709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9624604668633718</v>
+        <v>0.962318078525916</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1841</v>
@@ -4142,19 +4142,19 @@
         <v>1924706</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1907664</v>
+        <v>1907452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1938524</v>
+        <v>1940327</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9714132826376922</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9628121898280424</v>
+        <v>0.962705014372251</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9783874135208532</v>
+        <v>0.9792971613632853</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>14271</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23125</v>
+        <v>23909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.004204448015799813</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>143</v>
@@ -4267,19 +4267,19 @@
         <v>155641</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04391016616018439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -4288,19 +4288,19 @@
         <v>169913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02448702030884812</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>3380079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3371225</v>
+        <v>3370441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3386007</v>
+        <v>3386028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9957955519842002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9931871998954014</v>
+        <v>0.9929562316649245</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9975421230478594</v>
+        <v>0.9975481379495693</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3195</v>
@@ -4338,19 +4338,19 @@
         <v>3388901</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3363669</v>
+        <v>3362804</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3412584</v>
+        <v>3412398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9560898338398156</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9489713280771498</v>
+        <v>0.9487273924359169</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9627716132296203</v>
+        <v>0.9627190496616669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6412</v>
@@ -4359,19 +4359,19 @@
         <v>6768979</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6741065</v>
+        <v>6740316</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6794149</v>
+        <v>6793452</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9755129796911519</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9714900594117626</v>
+        <v>0.9713821663250252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9791403145885134</v>
+        <v>0.9790399087987001</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>7444</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3705</v>
+        <v>3669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13034</v>
+        <v>13307</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01077728114899381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005363361445412476</v>
+        <v>0.005311416905464423</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0188700587822479</v>
+        <v>0.01926573699837091</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -4724,19 +4724,19 @@
         <v>64868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55533</v>
+        <v>53104</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80104</v>
+        <v>79313</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08848234764012956</v>
+        <v>0.08848234764012955</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0757499450681003</v>
+        <v>0.07243624671526067</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1092652958212285</v>
+        <v>0.1081863467835919</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -4745,19 +4745,19 @@
         <v>72312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>59651</v>
+        <v>59486</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85704</v>
+        <v>86523</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05078690231677665</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04189529417662634</v>
+        <v>0.04177941242163523</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06019301176599804</v>
+        <v>0.0607683266266793</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>683266</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>677676</v>
+        <v>677403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>687005</v>
+        <v>687041</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9892227188510062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9811299412177521</v>
+        <v>0.980734263001629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9946366385545876</v>
+        <v>0.9946885830945356</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1124</v>
@@ -4795,19 +4795,19 @@
         <v>668245</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>653009</v>
+        <v>653800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>677580</v>
+        <v>680009</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9115176523598704</v>
+        <v>0.9115176523598705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8907347041787715</v>
+        <v>0.891813653216408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9242500549318997</v>
+        <v>0.9275637532847394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1843</v>
@@ -4816,19 +4816,19 @@
         <v>1351511</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1338119</v>
+        <v>1337300</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1364172</v>
+        <v>1364337</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9492130976832234</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9398069882340021</v>
+        <v>0.9392316733733207</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9581047058233737</v>
+        <v>0.9582205875783647</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>13681</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7351</v>
+        <v>8178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22687</v>
+        <v>23069</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0130429563245599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007007940192837326</v>
+        <v>0.0077966244135473</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02162894300644439</v>
+        <v>0.02199310903132032</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>137</v>
@@ -4941,19 +4941,19 @@
         <v>86081</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72343</v>
+        <v>72368</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100878</v>
+        <v>99789</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08041509177424606</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06758166290375024</v>
+        <v>0.06760434314338515</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09423822492322767</v>
+        <v>0.09322099340288134</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>151</v>
@@ -4962,19 +4962,19 @@
         <v>99762</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84362</v>
+        <v>84670</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116264</v>
+        <v>116467</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04707142172238712</v>
+        <v>0.04707142172238711</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0398049116011011</v>
+        <v>0.03995054962492421</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05485746603067911</v>
+        <v>0.0549532868789263</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>1035236</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1026230</v>
+        <v>1025848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1041566</v>
+        <v>1040739</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9869570436754402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9783710569935554</v>
+        <v>0.9780068909686795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9929920598071624</v>
+        <v>0.9922033755864527</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1378</v>
@@ -5012,19 +5012,19 @@
         <v>984378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>969581</v>
+        <v>970670</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>998116</v>
+        <v>998091</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9195849082257539</v>
+        <v>0.9195849082257541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9057617750767724</v>
+        <v>0.9067790065971185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9324183370962498</v>
+        <v>0.9323956568566146</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2328</v>
@@ -5033,19 +5033,19 @@
         <v>2019614</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2003112</v>
+        <v>2002909</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2035014</v>
+        <v>2034706</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.952928578277613</v>
+        <v>0.9529285782776126</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9451425339693208</v>
+        <v>0.9450467131210739</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.960195088398899</v>
+        <v>0.9600494503750758</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>7956</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3880</v>
+        <v>3398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15336</v>
+        <v>15197</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009919728880201052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00483714667640602</v>
+        <v>0.004236675418587694</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01912043495791069</v>
+        <v>0.01894730393541692</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>91</v>
@@ -5158,19 +5158,19 @@
         <v>66362</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53994</v>
+        <v>53051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82454</v>
+        <v>83086</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08183334709876439</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06658255945435118</v>
+        <v>0.06541983540983776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.101677211842026</v>
+        <v>0.1024559608396817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>99</v>
@@ -5179,19 +5179,19 @@
         <v>74318</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60680</v>
+        <v>60539</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>91061</v>
+        <v>90059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04607388932862337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03761865807460667</v>
+        <v>0.03753140764980201</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05645335725711048</v>
+        <v>0.05583244571384493</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>794130</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>786750</v>
+        <v>786889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>798206</v>
+        <v>798688</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.990080271119799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9808795650420893</v>
+        <v>0.9810526960645837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.995162853323594</v>
+        <v>0.9957633245814124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>954</v>
@@ -5229,19 +5229,19 @@
         <v>744577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>728485</v>
+        <v>727853</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>756945</v>
+        <v>757888</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9181666529012357</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.898322788157974</v>
+        <v>0.8975440391603182</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9334174405456488</v>
+        <v>0.9345801645901622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1621</v>
@@ -5250,19 +5250,19 @@
         <v>1538706</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1521963</v>
+        <v>1522965</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1552344</v>
+        <v>1552485</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9539261106713766</v>
+        <v>0.9539261106713767</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9435466427428895</v>
+        <v>0.9441675542861551</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9623813419253934</v>
+        <v>0.9624685923501981</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>18322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10680</v>
+        <v>10611</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31806</v>
+        <v>30102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01850607697027355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01078725818753237</v>
+        <v>0.01071782120989715</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03212558115206306</v>
+        <v>0.03040398345480656</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -5375,19 +5375,19 @@
         <v>93749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>78690</v>
+        <v>80238</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110610</v>
+        <v>111434</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08392658246823786</v>
+        <v>0.08392658246823788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07044559765325063</v>
+        <v>0.07183191598541286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0990211973966746</v>
+        <v>0.09975877410753699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>163</v>
@@ -5396,19 +5396,19 @@
         <v>112071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>95901</v>
+        <v>95337</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>132917</v>
+        <v>132638</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05318737250964253</v>
+        <v>0.05318737250964254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04551341515322649</v>
+        <v>0.04524575024055549</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06308060711442369</v>
+        <v>0.06294827890903969</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>971740</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>958256</v>
+        <v>959960</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>979382</v>
+        <v>979451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9814939230297264</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.967874418847937</v>
+        <v>0.9695960165451936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9892127418124677</v>
+        <v>0.9892821787901029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1414</v>
@@ -5446,19 +5446,19 @@
         <v>1023282</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1006421</v>
+        <v>1005597</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1038341</v>
+        <v>1036793</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9160734175317621</v>
+        <v>0.9160734175317622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9009788026033253</v>
+        <v>0.9002412258924628</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9295544023467494</v>
+        <v>0.9281680840145869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2402</v>
@@ -5467,19 +5467,19 @@
         <v>1995022</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1974176</v>
+        <v>1974455</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2011192</v>
+        <v>2011756</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9468126274903576</v>
+        <v>0.9468126274903578</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9369193928855765</v>
+        <v>0.9370517210909604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9544865848467734</v>
+        <v>0.9547542497594447</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>47404</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01342203222106385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>488</v>
@@ -5592,19 +5592,19 @@
         <v>311059</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>539</v>
@@ -5613,19 +5613,19 @@
         <v>358463</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>3484371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3468709</v>
+        <v>3468787</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3498257</v>
+        <v>3496984</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9865779677789362</v>
+        <v>0.9865779677789361</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.982143252531998</v>
+        <v>0.9821652341513647</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9905095739073201</v>
+        <v>0.9901492385453852</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4870</v>
@@ -5663,19 +5663,19 @@
         <v>3420483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3393549</v>
+        <v>3390594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3449267</v>
+        <v>3447330</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9166406098105049</v>
+        <v>0.9166406098105047</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9094227794855068</v>
+        <v>0.9086307903856772</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9243542008175248</v>
+        <v>0.9238351741170513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8194</v>
@@ -5684,19 +5684,19 @@
         <v>6904853</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6870641</v>
+        <v>6868567</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6935864</v>
+        <v>6935319</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.950647523984779</v>
+        <v>0.9506475239847789</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9459372899353269</v>
+        <v>0.9456516277638424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9549169748845956</v>
+        <v>0.9548420345070617</v>
       </c>
     </row>
     <row r="18">
